--- a/Data for test.xlsx
+++ b/Data for test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joe\Uni\Third-year\M351\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joe\Uni\Third-year\M351\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81917260-4743-4C33-8328-2CA86D99576C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E36F772-A121-4849-9360-C385E40B8330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{80F0D258-013B-4C12-8FE0-C1B1641A6FD0}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Berlin-Germany </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t xml:space="preserve"> day date</t>
   </si>
@@ -52,32 +49,29 @@
     <t>February</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t xml:space="preserve">Cairo </t>
   </si>
   <si>
-    <t>Column2</t>
+    <t>collected data</t>
   </si>
   <si>
-    <t>Column3</t>
+    <t>data for test</t>
   </si>
   <si>
-    <t>Column4</t>
+    <t>interpolation</t>
   </si>
   <si>
-    <t>Column5</t>
+    <t xml:space="preserve">data for test </t>
   </si>
   <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
+    <t>least squares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +82,12 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,7 +120,439 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -351,67 +783,101 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{79FCB1C5-3A65-4701-AA30-979CD5D7D935}" name="Table6" displayName="Table6" ref="B1:C11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="B1:C11" xr:uid="{79FCB1C5-3A65-4701-AA30-979CD5D7D935}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{79FCB1C5-3A65-4701-AA30-979CD5D7D935}" name="Table6" displayName="Table6" ref="B3:C18" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="B3:C18" xr:uid="{79FCB1C5-3A65-4701-AA30-979CD5D7D935}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FA8F0F2B-A959-489F-ADC3-0371E5D45533}" name=" day date" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{39DE54AF-EBE1-4D0B-ABA0-9533FAE437BE}" name="January" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FA8F0F2B-A959-489F-ADC3-0371E5D45533}" name=" day date" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{39DE54AF-EBE1-4D0B-ABA0-9533FAE437BE}" name="January" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C3466193-E10C-4434-B186-4BB281590FF0}" name="Table7" displayName="Table7" ref="E1:F11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
-  <autoFilter ref="E1:F11" xr:uid="{C3466193-E10C-4434-B186-4BB281590FF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C3466193-E10C-4434-B186-4BB281590FF0}" name="Table7" displayName="Table7" ref="E3:F18" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="E3:F18" xr:uid="{C3466193-E10C-4434-B186-4BB281590FF0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0C2A0325-0310-45E9-A17A-536D13E90CD8}" name=" day date" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{AE4CA89B-89D7-4B53-B4DA-7935C8803B15}" name="August" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{0C2A0325-0310-45E9-A17A-536D13E90CD8}" name=" day date" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{AE4CA89B-89D7-4B53-B4DA-7935C8803B15}" name="August" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CC15F024-87F1-42A3-8690-E54A7FD51FE2}" name="Table8" displayName="Table8" ref="H1:I11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
-  <autoFilter ref="H1:I11" xr:uid="{CC15F024-87F1-42A3-8690-E54A7FD51FE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CC15F024-87F1-42A3-8690-E54A7FD51FE2}" name="Table8" displayName="Table8" ref="H3:I18" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="H3:I18" xr:uid="{CC15F024-87F1-42A3-8690-E54A7FD51FE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5A9A3A8A-968B-4F40-B482-CB04B8434DF8}" name=" day date" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C5F33769-7E6B-4554-A874-BB75E6527CF1}" name="February" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{5A9A3A8A-968B-4F40-B482-CB04B8434DF8}" name=" day date" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{C5F33769-7E6B-4554-A874-BB75E6527CF1}" name="February" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FAD5D7F7-2080-46A4-B924-32BC6CB333E4}" name="Table9" displayName="Table9" ref="B14:H16" totalsRowShown="0">
-  <autoFilter ref="B14:H16" xr:uid="{FAD5D7F7-2080-46A4-B924-32BC6CB333E4}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D0A55910-3883-422A-93B9-73F92402D56F}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{5C9F20FF-BDB2-4EA9-8BEC-60FE17C0BA81}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{15B9813A-D16D-4C41-B64D-40EBE9E8DC07}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{8D6AAC14-C12D-4978-B758-9D2AB72984F2}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{8D2500A5-5932-4E73-9803-FCB2EE618862}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{2B4DA4C0-6C9F-41D7-B93A-EE6616023E43}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{049AC94D-F583-40D0-A701-178D931463D5}" name="Column7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8F6360F-6A0B-44EC-BB2E-8093EE675A6F}" name="Table62" displayName="Table62" ref="B25:C40" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B25:C40" xr:uid="{C8F6360F-6A0B-44EC-BB2E-8093EE675A6F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E4D0A930-E1F5-4C8D-AADE-523A5A70C644}" name=" day date" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{86C0E447-BB22-4440-838F-1C3B184CEA3F}" name="January" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{68A01061-1B3A-44E3-BA76-3CDED25A529D}" name="Table10" displayName="Table10" ref="B17:H19" totalsRowShown="0">
-  <autoFilter ref="B17:H19" xr:uid="{68A01061-1B3A-44E3-BA76-3CDED25A529D}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{464DDE64-1C05-43BE-B761-22196F77F721}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{26014974-895F-424B-BFB0-0664FFA6096A}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{5D6167B8-2827-49C7-9D68-A7B59656B4A0}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{282C89E9-C0D5-4816-8C5A-F71E757F7D1F}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{1F3F2E5E-3E1E-42C7-8E37-F78557936F7A}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{45754E26-1206-44BD-87D3-B63155A34BAC}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{50D79AD7-CE96-46E4-8074-9E9876004A43}" name="Column7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F324DA95-ECB7-4B37-AAD4-3AB27D725A09}" name="Table73" displayName="Table73" ref="E25:F40" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="E25:F40" xr:uid="{F324DA95-ECB7-4B37-AAD4-3AB27D725A09}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B422C4D4-3451-40C2-ADF2-696400850695}" name=" day date" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{44804A13-C65A-419F-A6FA-CBAF9376C392}" name="August" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1418748C-BBA9-4037-810E-AD27BC7FB4ED}" name="Table84" displayName="Table84" ref="H25:I40" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="H25:I40" xr:uid="{1418748C-BBA9-4037-810E-AD27BC7FB4ED}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{14D6A191-468E-4D74-9938-98F411A19C46}" name=" day date" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{6DDA884F-1305-457D-B14D-F418BF7BBB7B}" name="February" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3EFEC73A-EEB2-4D93-851D-A4824F8EF1D8}" name="Table625" displayName="Table625" ref="B44:C59" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B44:C59" xr:uid="{3EFEC73A-EEB2-4D93-851D-A4824F8EF1D8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5EC5D4E3-15BD-46DF-8638-BE33BF181161}" name=" day date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C2378214-5988-4008-BE75-CA4D3CD2AECB}" name="January" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B342217F-7AB5-402A-A3CB-59108AFAA7FC}" name="Table736" displayName="Table736" ref="E44:F59" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="E44:F59" xr:uid="{B342217F-7AB5-402A-A3CB-59108AFAA7FC}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3EFD818A-8618-457B-9396-5E3CBCB5C87F}" name=" day date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B6D0BC01-8D52-4214-9AFE-1F6518D99B5E}" name="August" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8B9BC8F1-1C84-4ED0-894F-FBB9E0C85C18}" name="Table8410" displayName="Table8410" ref="H44:I59" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="H44:I59" xr:uid="{8B9BC8F1-1C84-4ED0-894F-FBB9E0C85C18}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1C22C863-6857-4FC0-B44E-1AEDAE887C1F}" name=" day date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{DA9FF0B9-121F-4EF9-A2F6-6A466940D52E}" name="February" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -712,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547C4579-2782-4F44-85E9-0820310A4C25}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A2:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -727,421 +1193,949 @@
     <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-2</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>-4</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>-3</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>-8</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I10" s="1">
-        <v>-6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>-7</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I11" s="1">
-        <v>-10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="B14" s="1">
         <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1">
+        <v>32</v>
+      </c>
+      <c r="H17" s="1">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>32</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B31" s="1">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1">
+        <v>34</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <v>24</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1">
+        <v>32</v>
+      </c>
+      <c r="H32" s="1">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B33" s="1">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1">
+        <v>34</v>
+      </c>
+      <c r="H33" s="1">
+        <v>13</v>
+      </c>
+      <c r="I33" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B34" s="1">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1">
+        <v>32</v>
+      </c>
+      <c r="H34" s="1">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B35" s="1">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1">
+        <v>31</v>
+      </c>
+      <c r="H35" s="1">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>30</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>30</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
         <v>5</v>
       </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
+      <c r="C47" s="1">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B48" s="1">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1">
+        <v>32</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1">
+        <v>7</v>
+      </c>
+      <c r="I48" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>25</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>30</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
         <v>9</v>
       </c>
-      <c r="G15">
+      <c r="C50" s="1">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1">
+        <v>34</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1">
+        <v>9</v>
+      </c>
+      <c r="I50" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1">
+        <v>24</v>
+      </c>
+      <c r="E51" s="1">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1">
+        <v>32</v>
+      </c>
+      <c r="H51" s="1">
+        <v>11</v>
+      </c>
+      <c r="I51" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
         <v>12</v>
       </c>
-      <c r="H15">
+      <c r="C52" s="1">
+        <v>26</v>
+      </c>
+      <c r="E52" s="1">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1">
+        <v>32</v>
+      </c>
+      <c r="H52" s="1">
+        <v>12</v>
+      </c>
+      <c r="I52" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1">
+        <v>25</v>
+      </c>
+      <c r="E53" s="1">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1">
+        <v>34</v>
+      </c>
+      <c r="H53" s="1">
+        <v>13</v>
+      </c>
+      <c r="I53" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B54" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16">
-        <v>-2</v>
-      </c>
-      <c r="C16">
-        <v>-2</v>
-      </c>
-      <c r="D16">
-        <v>-6</v>
-      </c>
-      <c r="E16">
-        <v>-9</v>
-      </c>
-      <c r="F16">
-        <v>-2</v>
-      </c>
-      <c r="G16">
-        <v>-4</v>
-      </c>
-      <c r="H16">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="H18">
+      <c r="C54" s="1">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>19</v>
-      </c>
-      <c r="E19">
-        <v>19</v>
-      </c>
-      <c r="F19">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>18</v>
-      </c>
-      <c r="H19">
-        <v>15</v>
-      </c>
+      <c r="F54" s="1">
+        <v>32</v>
+      </c>
+      <c r="H54" s="1">
+        <v>14</v>
+      </c>
+      <c r="I54" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="2:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
